--- a/Assets/GameAssets/Config/Skills.xlsx
+++ b/Assets/GameAssets/Config/Skills.xlsx
@@ -21,6 +21,162 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">普工
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技能</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>赵呈学</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>: 
+1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">全体
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">敌方
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自己</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G1" authorId="0">
       <text>
         <r>
@@ -28,6 +184,147 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+攻击范围</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1-6
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">无规则
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">血量最少
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">对位
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自身</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -113,6 +410,161 @@
           </rPr>
           <t xml:space="preserve">全体
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">不产生伤害
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>产生</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+等级攻击加成
+0-1000
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>赵呈学</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>真实伤害</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+随机攻击</t>
         </r>
       </text>
     </comment>
@@ -121,7 +573,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,7 +607,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BaseHurt</t>
+    <t>Random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击前排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击竖列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普工单个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsHurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RealHurt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +647,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +677,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
@@ -520,20 +1012,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="5" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="8" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,16 +1042,133 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>10001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>10002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>10003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/GameAssets/Config/Skills.xlsx
+++ b/Assets/GameAssets/Config/Skills.xlsx
@@ -573,7 +573,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -611,14 +611,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击前排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击竖列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普工单个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -640,6 +632,18 @@
   </si>
   <si>
     <t>RealHurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击单个2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锤击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1012,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1042,25 +1046,25 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
@@ -1068,19 +1072,19 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>10001</v>
+        <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
+      <c r="D2">
+        <v>1001</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1089,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1109,22 +1113,28 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>10002</v>
+        <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3">
+        <v>1002</v>
+      </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1141,19 +1151,25 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>10003</v>
+        <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>1003</v>
+      </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1168,6 +1184,44 @@
         <v>0</v>
       </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1004</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
     </row>
